--- a/table.xlsx
+++ b/table.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dwchoi0610\dongwook\CAU\3-1\컴파일러\comp_tp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dongwook/dongwook/JAVA_Compiler/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A393E84E-76B8-48AE-A126-1A5472170D19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65831112-2D67-9E4B-B377-41242E829FE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{905F4A6F-FC75-43D4-850B-0696E6121E8C}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15980" xr2:uid="{905F4A6F-FC75-43D4-850B-0696E6121E8C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="134">
   <si>
     <t>State</t>
   </si>
@@ -1452,13 +1452,19 @@
       </rPr>
       <t>90</t>
     </r>
+  </si>
+  <si>
+    <t>CDECL</t>
+  </si>
+  <si>
+    <t>ODECL</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1505,6 +1511,12 @@
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Courier"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1563,7 +1575,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1582,12 +1594,23 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFF0F0F0"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1896,15 +1919,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F9904B3-6FAD-4636-ACFB-7A8D49F6588F}">
-  <dimension ref="A1:AP92"/>
+  <dimension ref="A1:AR92"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" topLeftCell="AE1" workbookViewId="0">
+      <selection activeCell="AV22" sqref="AV22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <sheetData>
-    <row r="1" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:44">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -2031,8 +2054,14 @@
       <c r="AP1" s="1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="2" spans="1:42" x14ac:dyDescent="0.45">
+      <c r="AQ1" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="AR1" s="6" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="2" spans="1:44">
       <c r="A2" s="2">
         <v>0</v>
       </c>
@@ -2089,8 +2118,12 @@
       <c r="AN2" s="3"/>
       <c r="AO2" s="3"/>
       <c r="AP2" s="3"/>
-    </row>
-    <row r="3" spans="1:42" x14ac:dyDescent="0.45">
+      <c r="AQ2" s="7">
+        <v>4</v>
+      </c>
+      <c r="AR2" s="7"/>
+    </row>
+    <row r="3" spans="1:44">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -2137,8 +2170,10 @@
       <c r="AN3" s="3"/>
       <c r="AO3" s="3"/>
       <c r="AP3" s="3"/>
-    </row>
-    <row r="4" spans="1:42" x14ac:dyDescent="0.45">
+      <c r="AQ3" s="7"/>
+      <c r="AR3" s="7"/>
+    </row>
+    <row r="4" spans="1:44">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -2195,8 +2230,12 @@
       <c r="AN4" s="3"/>
       <c r="AO4" s="3"/>
       <c r="AP4" s="3"/>
-    </row>
-    <row r="5" spans="1:42" x14ac:dyDescent="0.45">
+      <c r="AQ4" s="7">
+        <v>4</v>
+      </c>
+      <c r="AR4" s="7"/>
+    </row>
+    <row r="5" spans="1:44">
       <c r="A5" s="2">
         <v>3</v>
       </c>
@@ -2253,8 +2292,12 @@
       <c r="AN5" s="3"/>
       <c r="AO5" s="3"/>
       <c r="AP5" s="3"/>
-    </row>
-    <row r="6" spans="1:42" x14ac:dyDescent="0.45">
+      <c r="AQ5" s="7">
+        <v>4</v>
+      </c>
+      <c r="AR5" s="7"/>
+    </row>
+    <row r="6" spans="1:44">
       <c r="A6" s="2">
         <v>4</v>
       </c>
@@ -2311,8 +2354,12 @@
       <c r="AN6" s="3"/>
       <c r="AO6" s="3"/>
       <c r="AP6" s="3"/>
-    </row>
-    <row r="7" spans="1:42" x14ac:dyDescent="0.45">
+      <c r="AQ6" s="7">
+        <v>4</v>
+      </c>
+      <c r="AR6" s="7"/>
+    </row>
+    <row r="7" spans="1:44">
       <c r="A7" s="2">
         <v>5</v>
       </c>
@@ -2361,8 +2408,10 @@
       <c r="AN7" s="3"/>
       <c r="AO7" s="3"/>
       <c r="AP7" s="3"/>
-    </row>
-    <row r="8" spans="1:42" x14ac:dyDescent="0.45">
+      <c r="AQ7" s="7"/>
+      <c r="AR7" s="7"/>
+    </row>
+    <row r="8" spans="1:44">
       <c r="A8" s="2">
         <v>6</v>
       </c>
@@ -2409,8 +2458,10 @@
       <c r="AN8" s="3"/>
       <c r="AO8" s="3"/>
       <c r="AP8" s="3"/>
-    </row>
-    <row r="9" spans="1:42" x14ac:dyDescent="0.45">
+      <c r="AQ8" s="7"/>
+      <c r="AR8" s="7"/>
+    </row>
+    <row r="9" spans="1:44">
       <c r="A9" s="2">
         <v>7</v>
       </c>
@@ -2457,8 +2508,10 @@
       <c r="AN9" s="3"/>
       <c r="AO9" s="3"/>
       <c r="AP9" s="3"/>
-    </row>
-    <row r="10" spans="1:42" x14ac:dyDescent="0.45">
+      <c r="AQ9" s="7"/>
+      <c r="AR9" s="7"/>
+    </row>
+    <row r="10" spans="1:44">
       <c r="A10" s="2">
         <v>8</v>
       </c>
@@ -2505,8 +2558,10 @@
       <c r="AN10" s="3"/>
       <c r="AO10" s="3"/>
       <c r="AP10" s="3"/>
-    </row>
-    <row r="11" spans="1:42" x14ac:dyDescent="0.45">
+      <c r="AQ10" s="7"/>
+      <c r="AR10" s="7"/>
+    </row>
+    <row r="11" spans="1:44">
       <c r="A11" s="2">
         <v>9</v>
       </c>
@@ -2553,8 +2608,10 @@
       <c r="AN11" s="3"/>
       <c r="AO11" s="3"/>
       <c r="AP11" s="3"/>
-    </row>
-    <row r="12" spans="1:42" x14ac:dyDescent="0.45">
+      <c r="AQ11" s="7"/>
+      <c r="AR11" s="7"/>
+    </row>
+    <row r="12" spans="1:44">
       <c r="A12" s="2">
         <v>10</v>
       </c>
@@ -2605,8 +2662,10 @@
       <c r="AN12" s="3"/>
       <c r="AO12" s="3"/>
       <c r="AP12" s="3"/>
-    </row>
-    <row r="13" spans="1:42" x14ac:dyDescent="0.45">
+      <c r="AQ12" s="7"/>
+      <c r="AR12" s="7"/>
+    </row>
+    <row r="13" spans="1:44">
       <c r="A13" s="2">
         <v>11</v>
       </c>
@@ -2653,8 +2712,10 @@
       <c r="AN13" s="3"/>
       <c r="AO13" s="3"/>
       <c r="AP13" s="3"/>
-    </row>
-    <row r="14" spans="1:42" x14ac:dyDescent="0.45">
+      <c r="AQ13" s="7"/>
+      <c r="AR13" s="7"/>
+    </row>
+    <row r="14" spans="1:44">
       <c r="A14" s="2">
         <v>12</v>
       </c>
@@ -2701,8 +2762,10 @@
       <c r="AN14" s="3"/>
       <c r="AO14" s="3"/>
       <c r="AP14" s="3"/>
-    </row>
-    <row r="15" spans="1:42" x14ac:dyDescent="0.45">
+      <c r="AQ14" s="7"/>
+      <c r="AR14" s="7"/>
+    </row>
+    <row r="15" spans="1:44">
       <c r="A15" s="2">
         <v>13</v>
       </c>
@@ -2763,8 +2826,10 @@
       <c r="AN15" s="3"/>
       <c r="AO15" s="3"/>
       <c r="AP15" s="3"/>
-    </row>
-    <row r="16" spans="1:42" x14ac:dyDescent="0.45">
+      <c r="AQ15" s="7"/>
+      <c r="AR15" s="7"/>
+    </row>
+    <row r="16" spans="1:44">
       <c r="A16" s="2">
         <v>14</v>
       </c>
@@ -2815,8 +2880,10 @@
       <c r="AN16" s="3"/>
       <c r="AO16" s="3"/>
       <c r="AP16" s="3"/>
-    </row>
-    <row r="17" spans="1:42" x14ac:dyDescent="0.45">
+      <c r="AQ16" s="7"/>
+      <c r="AR16" s="7"/>
+    </row>
+    <row r="17" spans="1:44">
       <c r="A17" s="2">
         <v>15</v>
       </c>
@@ -2881,8 +2948,10 @@
       <c r="AN17" s="3"/>
       <c r="AO17" s="3"/>
       <c r="AP17" s="3"/>
-    </row>
-    <row r="18" spans="1:42" x14ac:dyDescent="0.45">
+      <c r="AQ17" s="7"/>
+      <c r="AR17" s="7"/>
+    </row>
+    <row r="18" spans="1:44">
       <c r="A18" s="2">
         <v>16</v>
       </c>
@@ -2943,8 +3012,10 @@
       <c r="AN18" s="3"/>
       <c r="AO18" s="3"/>
       <c r="AP18" s="3"/>
-    </row>
-    <row r="19" spans="1:42" x14ac:dyDescent="0.45">
+      <c r="AQ18" s="7"/>
+      <c r="AR18" s="7"/>
+    </row>
+    <row r="19" spans="1:44">
       <c r="A19" s="2">
         <v>17</v>
       </c>
@@ -2997,8 +3068,12 @@
       <c r="AN19" s="3"/>
       <c r="AO19" s="3"/>
       <c r="AP19" s="3"/>
-    </row>
-    <row r="20" spans="1:42" x14ac:dyDescent="0.45">
+      <c r="AQ19" s="7"/>
+      <c r="AR19" s="7">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:44">
       <c r="A20" s="2">
         <v>18</v>
       </c>
@@ -3045,8 +3120,10 @@
       <c r="AN20" s="3"/>
       <c r="AO20" s="3"/>
       <c r="AP20" s="3"/>
-    </row>
-    <row r="21" spans="1:42" x14ac:dyDescent="0.45">
+      <c r="AQ20" s="7"/>
+      <c r="AR20" s="7"/>
+    </row>
+    <row r="21" spans="1:44">
       <c r="A21" s="2">
         <v>19</v>
       </c>
@@ -3093,8 +3170,10 @@
       <c r="AN21" s="3"/>
       <c r="AO21" s="3"/>
       <c r="AP21" s="3"/>
-    </row>
-    <row r="22" spans="1:42" x14ac:dyDescent="0.45">
+      <c r="AQ21" s="7"/>
+      <c r="AR21" s="7"/>
+    </row>
+    <row r="22" spans="1:44">
       <c r="A22" s="2">
         <v>20</v>
       </c>
@@ -3141,8 +3220,10 @@
       <c r="AN22" s="3"/>
       <c r="AO22" s="3"/>
       <c r="AP22" s="3"/>
-    </row>
-    <row r="23" spans="1:42" x14ac:dyDescent="0.45">
+      <c r="AQ22" s="7"/>
+      <c r="AR22" s="7"/>
+    </row>
+    <row r="23" spans="1:44">
       <c r="A23" s="2">
         <v>21</v>
       </c>
@@ -3189,8 +3270,10 @@
       <c r="AN23" s="3"/>
       <c r="AO23" s="3"/>
       <c r="AP23" s="3"/>
-    </row>
-    <row r="24" spans="1:42" x14ac:dyDescent="0.45">
+      <c r="AQ23" s="7"/>
+      <c r="AR23" s="7"/>
+    </row>
+    <row r="24" spans="1:44">
       <c r="A24" s="2">
         <v>22</v>
       </c>
@@ -3237,8 +3320,10 @@
       <c r="AN24" s="3"/>
       <c r="AO24" s="3"/>
       <c r="AP24" s="3"/>
-    </row>
-    <row r="25" spans="1:42" x14ac:dyDescent="0.45">
+      <c r="AQ24" s="7"/>
+      <c r="AR24" s="7"/>
+    </row>
+    <row r="25" spans="1:44">
       <c r="A25" s="2">
         <v>23</v>
       </c>
@@ -3285,8 +3370,10 @@
       <c r="AN25" s="3"/>
       <c r="AO25" s="3"/>
       <c r="AP25" s="3"/>
-    </row>
-    <row r="26" spans="1:42" x14ac:dyDescent="0.45">
+      <c r="AQ25" s="7"/>
+      <c r="AR25" s="7"/>
+    </row>
+    <row r="26" spans="1:44">
       <c r="A26" s="2">
         <v>24</v>
       </c>
@@ -3333,8 +3420,10 @@
       <c r="AN26" s="3"/>
       <c r="AO26" s="3"/>
       <c r="AP26" s="3"/>
-    </row>
-    <row r="27" spans="1:42" x14ac:dyDescent="0.45">
+      <c r="AQ26" s="7"/>
+      <c r="AR26" s="7"/>
+    </row>
+    <row r="27" spans="1:44">
       <c r="A27" s="2">
         <v>25</v>
       </c>
@@ -3387,8 +3476,10 @@
       <c r="AN27" s="3"/>
       <c r="AO27" s="3"/>
       <c r="AP27" s="3"/>
-    </row>
-    <row r="28" spans="1:42" x14ac:dyDescent="0.45">
+      <c r="AQ27" s="7"/>
+      <c r="AR27" s="7"/>
+    </row>
+    <row r="28" spans="1:44">
       <c r="A28" s="2">
         <v>26</v>
       </c>
@@ -3443,8 +3534,10 @@
       <c r="AN28" s="3"/>
       <c r="AO28" s="3"/>
       <c r="AP28" s="3"/>
-    </row>
-    <row r="29" spans="1:42" x14ac:dyDescent="0.45">
+      <c r="AQ28" s="7"/>
+      <c r="AR28" s="7"/>
+    </row>
+    <row r="29" spans="1:44">
       <c r="A29" s="2">
         <v>27</v>
       </c>
@@ -3501,8 +3594,10 @@
       <c r="AN29" s="3"/>
       <c r="AO29" s="3"/>
       <c r="AP29" s="3"/>
-    </row>
-    <row r="30" spans="1:42" x14ac:dyDescent="0.45">
+      <c r="AQ29" s="7"/>
+      <c r="AR29" s="7"/>
+    </row>
+    <row r="30" spans="1:44">
       <c r="A30" s="2">
         <v>28</v>
       </c>
@@ -3555,8 +3650,10 @@
       <c r="AN30" s="3"/>
       <c r="AO30" s="3"/>
       <c r="AP30" s="3"/>
-    </row>
-    <row r="31" spans="1:42" x14ac:dyDescent="0.45">
+      <c r="AQ30" s="7"/>
+      <c r="AR30" s="7"/>
+    </row>
+    <row r="31" spans="1:44">
       <c r="A31" s="2">
         <v>29</v>
       </c>
@@ -3609,8 +3706,10 @@
       <c r="AN31" s="3"/>
       <c r="AO31" s="3"/>
       <c r="AP31" s="3"/>
-    </row>
-    <row r="32" spans="1:42" x14ac:dyDescent="0.45">
+      <c r="AQ31" s="7"/>
+      <c r="AR31" s="7"/>
+    </row>
+    <row r="32" spans="1:44">
       <c r="A32" s="2">
         <v>30</v>
       </c>
@@ -3657,8 +3756,10 @@
       <c r="AN32" s="3"/>
       <c r="AO32" s="3"/>
       <c r="AP32" s="3"/>
-    </row>
-    <row r="33" spans="1:42" x14ac:dyDescent="0.45">
+      <c r="AQ32" s="7"/>
+      <c r="AR32" s="7"/>
+    </row>
+    <row r="33" spans="1:44">
       <c r="A33" s="2">
         <v>31</v>
       </c>
@@ -3711,8 +3812,12 @@
       <c r="AN33" s="3"/>
       <c r="AO33" s="3"/>
       <c r="AP33" s="3"/>
-    </row>
-    <row r="34" spans="1:42" x14ac:dyDescent="0.45">
+      <c r="AQ33" s="7"/>
+      <c r="AR33" s="7">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="34" spans="1:44">
       <c r="A34" s="2">
         <v>32</v>
       </c>
@@ -3765,8 +3870,12 @@
       <c r="AN34" s="3"/>
       <c r="AO34" s="3"/>
       <c r="AP34" s="3"/>
-    </row>
-    <row r="35" spans="1:42" x14ac:dyDescent="0.45">
+      <c r="AQ34" s="7"/>
+      <c r="AR34" s="7">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="35" spans="1:44">
       <c r="A35" s="2">
         <v>33</v>
       </c>
@@ -3813,8 +3922,10 @@
       <c r="AN35" s="3"/>
       <c r="AO35" s="3"/>
       <c r="AP35" s="3"/>
-    </row>
-    <row r="36" spans="1:42" x14ac:dyDescent="0.45">
+      <c r="AQ35" s="7"/>
+      <c r="AR35" s="7"/>
+    </row>
+    <row r="36" spans="1:44">
       <c r="A36" s="2">
         <v>34</v>
       </c>
@@ -3865,8 +3976,10 @@
       <c r="AN36" s="3"/>
       <c r="AO36" s="3"/>
       <c r="AP36" s="3"/>
-    </row>
-    <row r="37" spans="1:42" x14ac:dyDescent="0.45">
+      <c r="AQ36" s="7"/>
+      <c r="AR36" s="7"/>
+    </row>
+    <row r="37" spans="1:44">
       <c r="A37" s="2">
         <v>35</v>
       </c>
@@ -3915,8 +4028,10 @@
       <c r="AN37" s="3"/>
       <c r="AO37" s="3"/>
       <c r="AP37" s="3"/>
-    </row>
-    <row r="38" spans="1:42" x14ac:dyDescent="0.45">
+      <c r="AQ37" s="7"/>
+      <c r="AR37" s="7"/>
+    </row>
+    <row r="38" spans="1:44">
       <c r="A38" s="2">
         <v>36</v>
       </c>
@@ -3971,8 +4086,10 @@
       <c r="AN38" s="3"/>
       <c r="AO38" s="3"/>
       <c r="AP38" s="3"/>
-    </row>
-    <row r="39" spans="1:42" x14ac:dyDescent="0.45">
+      <c r="AQ38" s="7"/>
+      <c r="AR38" s="7"/>
+    </row>
+    <row r="39" spans="1:44">
       <c r="A39" s="2">
         <v>37</v>
       </c>
@@ -4023,8 +4140,10 @@
       <c r="AN39" s="3"/>
       <c r="AO39" s="3"/>
       <c r="AP39" s="3"/>
-    </row>
-    <row r="40" spans="1:42" x14ac:dyDescent="0.45">
+      <c r="AQ39" s="7"/>
+      <c r="AR39" s="7"/>
+    </row>
+    <row r="40" spans="1:44">
       <c r="A40" s="2">
         <v>38</v>
       </c>
@@ -4077,8 +4196,10 @@
       <c r="AN40" s="3"/>
       <c r="AO40" s="3"/>
       <c r="AP40" s="3"/>
-    </row>
-    <row r="41" spans="1:42" x14ac:dyDescent="0.45">
+      <c r="AQ40" s="7"/>
+      <c r="AR40" s="7"/>
+    </row>
+    <row r="41" spans="1:44">
       <c r="A41" s="2">
         <v>39</v>
       </c>
@@ -4125,8 +4246,10 @@
       <c r="AN41" s="3"/>
       <c r="AO41" s="3"/>
       <c r="AP41" s="3"/>
-    </row>
-    <row r="42" spans="1:42" x14ac:dyDescent="0.45">
+      <c r="AQ41" s="7"/>
+      <c r="AR41" s="7"/>
+    </row>
+    <row r="42" spans="1:44">
       <c r="A42" s="2">
         <v>40</v>
       </c>
@@ -4177,8 +4300,10 @@
       <c r="AN42" s="3"/>
       <c r="AO42" s="3"/>
       <c r="AP42" s="3"/>
-    </row>
-    <row r="43" spans="1:42" x14ac:dyDescent="0.45">
+      <c r="AQ42" s="7"/>
+      <c r="AR42" s="7"/>
+    </row>
+    <row r="43" spans="1:44">
       <c r="A43" s="2">
         <v>41</v>
       </c>
@@ -4225,8 +4350,10 @@
       <c r="AN43" s="3"/>
       <c r="AO43" s="3"/>
       <c r="AP43" s="3"/>
-    </row>
-    <row r="44" spans="1:42" x14ac:dyDescent="0.45">
+      <c r="AQ43" s="7"/>
+      <c r="AR43" s="7"/>
+    </row>
+    <row r="44" spans="1:44">
       <c r="A44" s="2">
         <v>42</v>
       </c>
@@ -4273,8 +4400,10 @@
       <c r="AN44" s="3"/>
       <c r="AO44" s="3"/>
       <c r="AP44" s="3"/>
-    </row>
-    <row r="45" spans="1:42" x14ac:dyDescent="0.45">
+      <c r="AQ44" s="7"/>
+      <c r="AR44" s="7"/>
+    </row>
+    <row r="45" spans="1:44">
       <c r="A45" s="2">
         <v>43</v>
       </c>
@@ -4339,8 +4468,10 @@
       <c r="AN45" s="3"/>
       <c r="AO45" s="3"/>
       <c r="AP45" s="3"/>
-    </row>
-    <row r="46" spans="1:42" x14ac:dyDescent="0.45">
+      <c r="AQ45" s="7"/>
+      <c r="AR45" s="7"/>
+    </row>
+    <row r="46" spans="1:44">
       <c r="A46" s="2">
         <v>44</v>
       </c>
@@ -4387,8 +4518,10 @@
       <c r="AN46" s="3"/>
       <c r="AO46" s="3"/>
       <c r="AP46" s="3"/>
-    </row>
-    <row r="47" spans="1:42" x14ac:dyDescent="0.45">
+      <c r="AQ46" s="7"/>
+      <c r="AR46" s="7"/>
+    </row>
+    <row r="47" spans="1:44">
       <c r="A47" s="2">
         <v>45</v>
       </c>
@@ -4435,8 +4568,10 @@
       <c r="AN47" s="3"/>
       <c r="AO47" s="3"/>
       <c r="AP47" s="3"/>
-    </row>
-    <row r="48" spans="1:42" x14ac:dyDescent="0.45">
+      <c r="AQ47" s="7"/>
+      <c r="AR47" s="7"/>
+    </row>
+    <row r="48" spans="1:44">
       <c r="A48" s="2">
         <v>46</v>
       </c>
@@ -4489,8 +4624,10 @@
       <c r="AN48" s="3"/>
       <c r="AO48" s="3"/>
       <c r="AP48" s="3"/>
-    </row>
-    <row r="49" spans="1:42" x14ac:dyDescent="0.45">
+      <c r="AQ48" s="7"/>
+      <c r="AR48" s="7"/>
+    </row>
+    <row r="49" spans="1:44">
       <c r="A49" s="2">
         <v>47</v>
       </c>
@@ -4545,8 +4682,10 @@
       <c r="AN49" s="3"/>
       <c r="AO49" s="3"/>
       <c r="AP49" s="3"/>
-    </row>
-    <row r="50" spans="1:42" x14ac:dyDescent="0.45">
+      <c r="AQ49" s="7"/>
+      <c r="AR49" s="7"/>
+    </row>
+    <row r="50" spans="1:44">
       <c r="A50" s="2">
         <v>48</v>
       </c>
@@ -4599,8 +4738,10 @@
       <c r="AN50" s="3"/>
       <c r="AO50" s="3"/>
       <c r="AP50" s="3"/>
-    </row>
-    <row r="51" spans="1:42" x14ac:dyDescent="0.45">
+      <c r="AQ50" s="7"/>
+      <c r="AR50" s="7"/>
+    </row>
+    <row r="51" spans="1:44">
       <c r="A51" s="2">
         <v>49</v>
       </c>
@@ -4649,8 +4790,10 @@
       <c r="AP51" s="2">
         <v>60</v>
       </c>
-    </row>
-    <row r="52" spans="1:42" x14ac:dyDescent="0.45">
+      <c r="AQ51" s="7"/>
+      <c r="AR51" s="7"/>
+    </row>
+    <row r="52" spans="1:44">
       <c r="A52" s="2">
         <v>50</v>
       </c>
@@ -4715,8 +4858,10 @@
       <c r="AN52" s="3"/>
       <c r="AO52" s="3"/>
       <c r="AP52" s="3"/>
-    </row>
-    <row r="53" spans="1:42" x14ac:dyDescent="0.45">
+      <c r="AQ52" s="7"/>
+      <c r="AR52" s="7"/>
+    </row>
+    <row r="53" spans="1:44">
       <c r="A53" s="2">
         <v>51</v>
       </c>
@@ -4773,8 +4918,10 @@
       <c r="AN53" s="3"/>
       <c r="AO53" s="3"/>
       <c r="AP53" s="3"/>
-    </row>
-    <row r="54" spans="1:42" x14ac:dyDescent="0.45">
+      <c r="AQ53" s="7"/>
+      <c r="AR53" s="7"/>
+    </row>
+    <row r="54" spans="1:44">
       <c r="A54" s="2">
         <v>52</v>
       </c>
@@ -4821,8 +4968,10 @@
       <c r="AN54" s="3"/>
       <c r="AO54" s="3"/>
       <c r="AP54" s="3"/>
-    </row>
-    <row r="55" spans="1:42" x14ac:dyDescent="0.45">
+      <c r="AQ54" s="7"/>
+      <c r="AR54" s="7"/>
+    </row>
+    <row r="55" spans="1:44">
       <c r="A55" s="2">
         <v>53</v>
       </c>
@@ -4869,8 +5018,10 @@
       <c r="AN55" s="3"/>
       <c r="AO55" s="3"/>
       <c r="AP55" s="3"/>
-    </row>
-    <row r="56" spans="1:42" x14ac:dyDescent="0.45">
+      <c r="AQ55" s="7"/>
+      <c r="AR55" s="7"/>
+    </row>
+    <row r="56" spans="1:44">
       <c r="A56" s="2">
         <v>54</v>
       </c>
@@ -4917,8 +5068,10 @@
       <c r="AN56" s="3"/>
       <c r="AO56" s="3"/>
       <c r="AP56" s="3"/>
-    </row>
-    <row r="57" spans="1:42" x14ac:dyDescent="0.45">
+      <c r="AQ56" s="7"/>
+      <c r="AR56" s="7"/>
+    </row>
+    <row r="57" spans="1:44">
       <c r="A57" s="2">
         <v>55</v>
       </c>
@@ -4967,8 +5120,10 @@
       <c r="AN57" s="3"/>
       <c r="AO57" s="3"/>
       <c r="AP57" s="3"/>
-    </row>
-    <row r="58" spans="1:42" x14ac:dyDescent="0.45">
+      <c r="AQ57" s="7"/>
+      <c r="AR57" s="7"/>
+    </row>
+    <row r="58" spans="1:44">
       <c r="A58" s="2">
         <v>56</v>
       </c>
@@ -5015,8 +5170,10 @@
       <c r="AN58" s="3"/>
       <c r="AO58" s="3"/>
       <c r="AP58" s="3"/>
-    </row>
-    <row r="59" spans="1:42" x14ac:dyDescent="0.45">
+      <c r="AQ58" s="7"/>
+      <c r="AR58" s="7"/>
+    </row>
+    <row r="59" spans="1:44">
       <c r="A59" s="2">
         <v>57</v>
       </c>
@@ -5063,8 +5220,10 @@
       <c r="AN59" s="3"/>
       <c r="AO59" s="3"/>
       <c r="AP59" s="3"/>
-    </row>
-    <row r="60" spans="1:42" x14ac:dyDescent="0.45">
+      <c r="AQ59" s="7"/>
+      <c r="AR59" s="7"/>
+    </row>
+    <row r="60" spans="1:44">
       <c r="A60" s="2">
         <v>58</v>
       </c>
@@ -5113,8 +5272,10 @@
       <c r="AN60" s="3"/>
       <c r="AO60" s="3"/>
       <c r="AP60" s="3"/>
-    </row>
-    <row r="61" spans="1:42" x14ac:dyDescent="0.45">
+      <c r="AQ60" s="7"/>
+      <c r="AR60" s="7"/>
+    </row>
+    <row r="61" spans="1:44">
       <c r="A61" s="2">
         <v>59</v>
       </c>
@@ -5165,8 +5326,10 @@
       <c r="AN61" s="3"/>
       <c r="AO61" s="3"/>
       <c r="AP61" s="3"/>
-    </row>
-    <row r="62" spans="1:42" x14ac:dyDescent="0.45">
+      <c r="AQ61" s="7"/>
+      <c r="AR61" s="7"/>
+    </row>
+    <row r="62" spans="1:44">
       <c r="A62" s="2">
         <v>60</v>
       </c>
@@ -5213,8 +5376,10 @@
       <c r="AN62" s="3"/>
       <c r="AO62" s="3"/>
       <c r="AP62" s="3"/>
-    </row>
-    <row r="63" spans="1:42" x14ac:dyDescent="0.45">
+      <c r="AQ62" s="7"/>
+      <c r="AR62" s="7"/>
+    </row>
+    <row r="63" spans="1:44">
       <c r="A63" s="2">
         <v>61</v>
       </c>
@@ -5279,8 +5444,10 @@
       <c r="AN63" s="3"/>
       <c r="AO63" s="3"/>
       <c r="AP63" s="3"/>
-    </row>
-    <row r="64" spans="1:42" x14ac:dyDescent="0.45">
+      <c r="AQ63" s="7"/>
+      <c r="AR63" s="7"/>
+    </row>
+    <row r="64" spans="1:44">
       <c r="A64" s="2">
         <v>62</v>
       </c>
@@ -5329,8 +5496,10 @@
       <c r="AN64" s="3"/>
       <c r="AO64" s="3"/>
       <c r="AP64" s="3"/>
-    </row>
-    <row r="65" spans="1:42" x14ac:dyDescent="0.45">
+      <c r="AQ64" s="7"/>
+      <c r="AR64" s="7"/>
+    </row>
+    <row r="65" spans="1:44">
       <c r="A65" s="2">
         <v>63</v>
       </c>
@@ -5387,8 +5556,10 @@
       <c r="AN65" s="3"/>
       <c r="AO65" s="3"/>
       <c r="AP65" s="3"/>
-    </row>
-    <row r="66" spans="1:42" x14ac:dyDescent="0.45">
+      <c r="AQ65" s="7"/>
+      <c r="AR65" s="7"/>
+    </row>
+    <row r="66" spans="1:44">
       <c r="A66" s="2">
         <v>64</v>
       </c>
@@ -5439,8 +5610,10 @@
       </c>
       <c r="AO66" s="3"/>
       <c r="AP66" s="3"/>
-    </row>
-    <row r="67" spans="1:42" x14ac:dyDescent="0.45">
+      <c r="AQ66" s="7"/>
+      <c r="AR66" s="7"/>
+    </row>
+    <row r="67" spans="1:44">
       <c r="A67" s="2">
         <v>65</v>
       </c>
@@ -5491,8 +5664,10 @@
       </c>
       <c r="AO67" s="3"/>
       <c r="AP67" s="3"/>
-    </row>
-    <row r="68" spans="1:42" x14ac:dyDescent="0.45">
+      <c r="AQ67" s="7"/>
+      <c r="AR67" s="7"/>
+    </row>
+    <row r="68" spans="1:44">
       <c r="A68" s="2">
         <v>66</v>
       </c>
@@ -5541,8 +5716,10 @@
       <c r="AN68" s="3"/>
       <c r="AO68" s="3"/>
       <c r="AP68" s="3"/>
-    </row>
-    <row r="69" spans="1:42" x14ac:dyDescent="0.45">
+      <c r="AQ68" s="7"/>
+      <c r="AR68" s="7"/>
+    </row>
+    <row r="69" spans="1:44">
       <c r="A69" s="2">
         <v>67</v>
       </c>
@@ -5593,8 +5770,10 @@
       <c r="AN69" s="3"/>
       <c r="AO69" s="3"/>
       <c r="AP69" s="3"/>
-    </row>
-    <row r="70" spans="1:42" x14ac:dyDescent="0.45">
+      <c r="AQ69" s="7"/>
+      <c r="AR69" s="7"/>
+    </row>
+    <row r="70" spans="1:44">
       <c r="A70" s="2">
         <v>68</v>
       </c>
@@ -5647,8 +5826,10 @@
       <c r="AN70" s="3"/>
       <c r="AO70" s="3"/>
       <c r="AP70" s="3"/>
-    </row>
-    <row r="71" spans="1:42" x14ac:dyDescent="0.45">
+      <c r="AQ70" s="7"/>
+      <c r="AR70" s="7"/>
+    </row>
+    <row r="71" spans="1:44">
       <c r="A71" s="2">
         <v>69</v>
       </c>
@@ -5695,8 +5876,10 @@
       <c r="AN71" s="3"/>
       <c r="AO71" s="3"/>
       <c r="AP71" s="3"/>
-    </row>
-    <row r="72" spans="1:42" x14ac:dyDescent="0.45">
+      <c r="AQ71" s="7"/>
+      <c r="AR71" s="7"/>
+    </row>
+    <row r="72" spans="1:44">
       <c r="A72" s="2">
         <v>70</v>
       </c>
@@ -5743,8 +5926,10 @@
       <c r="AN72" s="3"/>
       <c r="AO72" s="3"/>
       <c r="AP72" s="3"/>
-    </row>
-    <row r="73" spans="1:42" x14ac:dyDescent="0.45">
+      <c r="AQ72" s="7"/>
+      <c r="AR72" s="7"/>
+    </row>
+    <row r="73" spans="1:44">
       <c r="A73" s="2">
         <v>71</v>
       </c>
@@ -5791,8 +5976,10 @@
       <c r="AN73" s="3"/>
       <c r="AO73" s="3"/>
       <c r="AP73" s="3"/>
-    </row>
-    <row r="74" spans="1:42" x14ac:dyDescent="0.45">
+      <c r="AQ73" s="7"/>
+      <c r="AR73" s="7"/>
+    </row>
+    <row r="74" spans="1:44">
       <c r="A74" s="2">
         <v>72</v>
       </c>
@@ -5841,8 +6028,10 @@
       <c r="AN74" s="3"/>
       <c r="AO74" s="3"/>
       <c r="AP74" s="3"/>
-    </row>
-    <row r="75" spans="1:42" x14ac:dyDescent="0.45">
+      <c r="AQ74" s="7"/>
+      <c r="AR74" s="7"/>
+    </row>
+    <row r="75" spans="1:44">
       <c r="A75" s="2">
         <v>73</v>
       </c>
@@ -5889,8 +6078,10 @@
       <c r="AN75" s="3"/>
       <c r="AO75" s="3"/>
       <c r="AP75" s="3"/>
-    </row>
-    <row r="76" spans="1:42" x14ac:dyDescent="0.45">
+      <c r="AQ75" s="7"/>
+      <c r="AR75" s="7"/>
+    </row>
+    <row r="76" spans="1:44">
       <c r="A76" s="2">
         <v>74</v>
       </c>
@@ -5937,8 +6128,10 @@
       <c r="AN76" s="3"/>
       <c r="AO76" s="3"/>
       <c r="AP76" s="3"/>
-    </row>
-    <row r="77" spans="1:42" x14ac:dyDescent="0.45">
+      <c r="AQ76" s="7"/>
+      <c r="AR76" s="7"/>
+    </row>
+    <row r="77" spans="1:44">
       <c r="A77" s="2">
         <v>75</v>
       </c>
@@ -5985,8 +6178,10 @@
       <c r="AN77" s="3"/>
       <c r="AO77" s="3"/>
       <c r="AP77" s="3"/>
-    </row>
-    <row r="78" spans="1:42" x14ac:dyDescent="0.45">
+      <c r="AQ77" s="7"/>
+      <c r="AR77" s="7"/>
+    </row>
+    <row r="78" spans="1:44">
       <c r="A78" s="2">
         <v>76</v>
       </c>
@@ -6033,8 +6228,10 @@
       <c r="AN78" s="3"/>
       <c r="AO78" s="3"/>
       <c r="AP78" s="3"/>
-    </row>
-    <row r="79" spans="1:42" x14ac:dyDescent="0.45">
+      <c r="AQ78" s="7"/>
+      <c r="AR78" s="7"/>
+    </row>
+    <row r="79" spans="1:44">
       <c r="A79" s="2">
         <v>77</v>
       </c>
@@ -6085,8 +6282,10 @@
       </c>
       <c r="AO79" s="3"/>
       <c r="AP79" s="3"/>
-    </row>
-    <row r="80" spans="1:42" x14ac:dyDescent="0.45">
+      <c r="AQ79" s="7"/>
+      <c r="AR79" s="7"/>
+    </row>
+    <row r="80" spans="1:44">
       <c r="A80" s="2">
         <v>78</v>
       </c>
@@ -6133,8 +6332,10 @@
       <c r="AN80" s="3"/>
       <c r="AO80" s="3"/>
       <c r="AP80" s="3"/>
-    </row>
-    <row r="81" spans="1:42" x14ac:dyDescent="0.45">
+      <c r="AQ80" s="7"/>
+      <c r="AR80" s="7"/>
+    </row>
+    <row r="81" spans="1:44">
       <c r="A81" s="2">
         <v>79</v>
       </c>
@@ -6199,8 +6400,10 @@
       <c r="AN81" s="3"/>
       <c r="AO81" s="3"/>
       <c r="AP81" s="3"/>
-    </row>
-    <row r="82" spans="1:42" x14ac:dyDescent="0.45">
+      <c r="AQ81" s="7"/>
+      <c r="AR81" s="7"/>
+    </row>
+    <row r="82" spans="1:44">
       <c r="A82" s="2">
         <v>80</v>
       </c>
@@ -6247,8 +6450,10 @@
       <c r="AN82" s="3"/>
       <c r="AO82" s="3"/>
       <c r="AP82" s="3"/>
-    </row>
-    <row r="83" spans="1:42" x14ac:dyDescent="0.45">
+      <c r="AQ82" s="7"/>
+      <c r="AR82" s="7"/>
+    </row>
+    <row r="83" spans="1:44">
       <c r="A83" s="2">
         <v>81</v>
       </c>
@@ -6313,8 +6518,10 @@
       <c r="AN83" s="3"/>
       <c r="AO83" s="3"/>
       <c r="AP83" s="3"/>
-    </row>
-    <row r="84" spans="1:42" x14ac:dyDescent="0.45">
+      <c r="AQ83" s="7"/>
+      <c r="AR83" s="7"/>
+    </row>
+    <row r="84" spans="1:44">
       <c r="A84" s="2">
         <v>82</v>
       </c>
@@ -6361,8 +6568,10 @@
       <c r="AN84" s="3"/>
       <c r="AO84" s="3"/>
       <c r="AP84" s="3"/>
-    </row>
-    <row r="85" spans="1:42" x14ac:dyDescent="0.45">
+      <c r="AQ84" s="7"/>
+      <c r="AR84" s="7"/>
+    </row>
+    <row r="85" spans="1:44">
       <c r="A85" s="2">
         <v>83</v>
       </c>
@@ -6409,8 +6618,10 @@
       <c r="AN85" s="3"/>
       <c r="AO85" s="3"/>
       <c r="AP85" s="3"/>
-    </row>
-    <row r="86" spans="1:42" x14ac:dyDescent="0.45">
+      <c r="AQ85" s="7"/>
+      <c r="AR85" s="7"/>
+    </row>
+    <row r="86" spans="1:44">
       <c r="A86" s="2">
         <v>84</v>
       </c>
@@ -6471,8 +6682,10 @@
         <v>86</v>
       </c>
       <c r="AP86" s="3"/>
-    </row>
-    <row r="87" spans="1:42" x14ac:dyDescent="0.45">
+      <c r="AQ86" s="7"/>
+      <c r="AR86" s="7"/>
+    </row>
+    <row r="87" spans="1:44">
       <c r="A87" s="2">
         <v>85</v>
       </c>
@@ -6529,8 +6742,10 @@
       <c r="AN87" s="3"/>
       <c r="AO87" s="3"/>
       <c r="AP87" s="3"/>
-    </row>
-    <row r="88" spans="1:42" x14ac:dyDescent="0.45">
+      <c r="AQ87" s="7"/>
+      <c r="AR87" s="7"/>
+    </row>
+    <row r="88" spans="1:44">
       <c r="A88" s="2">
         <v>86</v>
       </c>
@@ -6587,8 +6802,10 @@
       <c r="AN88" s="3"/>
       <c r="AO88" s="3"/>
       <c r="AP88" s="3"/>
-    </row>
-    <row r="89" spans="1:42" x14ac:dyDescent="0.45">
+      <c r="AQ88" s="7"/>
+      <c r="AR88" s="7"/>
+    </row>
+    <row r="89" spans="1:44">
       <c r="A89" s="2">
         <v>87</v>
       </c>
@@ -6635,8 +6852,10 @@
       <c r="AN89" s="3"/>
       <c r="AO89" s="3"/>
       <c r="AP89" s="3"/>
-    </row>
-    <row r="90" spans="1:42" x14ac:dyDescent="0.45">
+      <c r="AQ89" s="7"/>
+      <c r="AR89" s="7"/>
+    </row>
+    <row r="90" spans="1:44">
       <c r="A90" s="2">
         <v>88</v>
       </c>
@@ -6701,8 +6920,10 @@
       <c r="AN90" s="3"/>
       <c r="AO90" s="3"/>
       <c r="AP90" s="3"/>
-    </row>
-    <row r="91" spans="1:42" x14ac:dyDescent="0.45">
+      <c r="AQ90" s="7"/>
+      <c r="AR90" s="7"/>
+    </row>
+    <row r="91" spans="1:44">
       <c r="A91" s="2">
         <v>89</v>
       </c>
@@ -6749,8 +6970,10 @@
       <c r="AN91" s="3"/>
       <c r="AO91" s="3"/>
       <c r="AP91" s="3"/>
-    </row>
-    <row r="92" spans="1:42" x14ac:dyDescent="0.45">
+      <c r="AQ91" s="7"/>
+      <c r="AR91" s="7"/>
+    </row>
+    <row r="92" spans="1:44">
       <c r="A92" s="2">
         <v>90</v>
       </c>
@@ -6807,6 +7030,8 @@
       <c r="AN92" s="3"/>
       <c r="AO92" s="3"/>
       <c r="AP92" s="3"/>
+      <c r="AQ92" s="7"/>
+      <c r="AR92" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
